--- a/resources/terkep_allas.xlsx
+++ b/resources/terkep_allas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kezdőhelyek" sheetId="4" r:id="rId1"/>
@@ -740,9 +740,6 @@
     <t>violet</t>
   </si>
   <si>
-    <t>lavender</t>
-  </si>
-  <si>
     <t>salmon</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>mennyiség</t>
+  </si>
+  <si>
+    <t>maroon</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="I17:J17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1211,58 +1211,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1286,40 +1268,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1343,40 +1325,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1400,40 +1382,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1457,40 +1439,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1514,40 +1496,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1560,8 +1542,8 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1611,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1696,8 +1678,8 @@
   <sheetPr codeName="Munka3"/>
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,9 +1756,6 @@
       <c r="C5">
         <v>-3</v>
       </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -1791,9 +1770,6 @@
       <c r="C6">
         <v>-4</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -1807,9 +1783,6 @@
       </c>
       <c r="C7">
         <v>-5</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4813,7 +4786,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4823,58 +4796,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4898,58 +4853,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4973,58 +4910,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5048,58 +4967,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +5014,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5123,58 +5024,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5198,40 +5081,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/resources/terkep_allas.xlsx
+++ b/resources/terkep_allas.xlsx
@@ -1089,7 +1089,7 @@
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
